--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.674406333333333</v>
+        <v>0.08140533333333333</v>
       </c>
       <c r="H2">
-        <v>14.023219</v>
+        <v>0.244216</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1131514935296598</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1131514935296598</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.573052</v>
+        <v>0.3922183333333333</v>
       </c>
       <c r="N2">
-        <v>19.719156</v>
+        <v>1.176655</v>
       </c>
       <c r="O2">
-        <v>0.9563653689351861</v>
+        <v>0.06257714082953221</v>
       </c>
       <c r="P2">
-        <v>0.956365368935186</v>
+        <v>0.06257714082953222</v>
       </c>
       <c r="Q2">
-        <v>30.72511589812933</v>
+        <v>0.03192866416444445</v>
       </c>
       <c r="R2">
-        <v>276.526043083164</v>
+        <v>0.28735797748</v>
       </c>
       <c r="S2">
-        <v>0.9563653689351861</v>
+        <v>0.007080696945677423</v>
       </c>
       <c r="T2">
-        <v>0.956365368935186</v>
+        <v>0.007080696945677424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.08140533333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.244216</v>
+      </c>
+      <c r="I3">
+        <v>0.1131514935296598</v>
+      </c>
+      <c r="J3">
+        <v>0.1131514935296598</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>4.674406333333333</v>
-      </c>
-      <c r="H3">
-        <v>14.023219</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.034619</v>
+        <v>5.787580333333334</v>
       </c>
       <c r="N3">
-        <v>0.103857</v>
+        <v>17.362741</v>
       </c>
       <c r="O3">
-        <v>0.005036992360195417</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="P3">
-        <v>0.005036992360195417</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="Q3">
-        <v>0.1618232728536666</v>
+        <v>0.4711399062284444</v>
       </c>
       <c r="R3">
-        <v>1.456409455683</v>
+        <v>4.240259156056</v>
       </c>
       <c r="S3">
-        <v>0.005036992360195417</v>
+        <v>0.104482883400222</v>
       </c>
       <c r="T3">
-        <v>0.005036992360195417</v>
+        <v>0.104482883400222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,371 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.08140533333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.244216</v>
+      </c>
+      <c r="I4">
+        <v>0.1131514935296598</v>
+      </c>
+      <c r="J4">
+        <v>0.1131514935296598</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.034619</v>
+      </c>
+      <c r="N4">
+        <v>0.103857</v>
+      </c>
+      <c r="O4">
+        <v>0.005523347213187152</v>
+      </c>
+      <c r="P4">
+        <v>0.005523347213187152</v>
+      </c>
+      <c r="Q4">
+        <v>0.002818171234666667</v>
+      </c>
+      <c r="R4">
+        <v>0.025363541112</v>
+      </c>
+      <c r="S4">
+        <v>0.0006249749864550104</v>
+      </c>
+      <c r="T4">
+        <v>0.0006249749864550103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.08140533333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.244216</v>
+      </c>
+      <c r="I5">
+        <v>0.1131514935296598</v>
+      </c>
+      <c r="J5">
+        <v>0.1131514935296598</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05333966666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.160019</v>
+      </c>
+      <c r="O5">
+        <v>0.008510167804837369</v>
+      </c>
+      <c r="P5">
+        <v>0.008510167804837371</v>
+      </c>
+      <c r="Q5">
+        <v>0.004342133344888889</v>
+      </c>
+      <c r="R5">
+        <v>0.039079200104</v>
+      </c>
+      <c r="S5">
+        <v>0.0009629381973053746</v>
+      </c>
+      <c r="T5">
+        <v>0.0009629381973053746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>4.674406333333333</v>
-      </c>
-      <c r="H4">
-        <v>14.023219</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.6380313333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.914094</v>
+      </c>
+      <c r="I6">
+        <v>0.8868485064703402</v>
+      </c>
+      <c r="J6">
+        <v>0.8868485064703401</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M4">
-        <v>0.2652796666666666</v>
-      </c>
-      <c r="N4">
-        <v>0.795839</v>
-      </c>
-      <c r="O4">
-        <v>0.03859763870461847</v>
-      </c>
-      <c r="P4">
-        <v>0.03859763870461847</v>
-      </c>
-      <c r="Q4">
-        <v>1.240024953971222</v>
-      </c>
-      <c r="R4">
-        <v>11.160224585741</v>
-      </c>
-      <c r="S4">
-        <v>0.03859763870461847</v>
-      </c>
-      <c r="T4">
-        <v>0.03859763870461847</v>
+      <c r="M6">
+        <v>0.3922183333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.176655</v>
+      </c>
+      <c r="O6">
+        <v>0.06257714082953221</v>
+      </c>
+      <c r="P6">
+        <v>0.06257714082953222</v>
+      </c>
+      <c r="Q6">
+        <v>0.2502475861744444</v>
+      </c>
+      <c r="R6">
+        <v>2.25222827557</v>
+      </c>
+      <c r="S6">
+        <v>0.05549644388385479</v>
+      </c>
+      <c r="T6">
+        <v>0.05549644388385479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6380313333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.914094</v>
+      </c>
+      <c r="I7">
+        <v>0.8868485064703402</v>
+      </c>
+      <c r="J7">
+        <v>0.8868485064703401</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.787580333333334</v>
+      </c>
+      <c r="N7">
+        <v>17.362741</v>
+      </c>
+      <c r="O7">
+        <v>0.9233893441524432</v>
+      </c>
+      <c r="P7">
+        <v>0.9233893441524432</v>
+      </c>
+      <c r="Q7">
+        <v>3.692657596850444</v>
+      </c>
+      <c r="R7">
+        <v>33.233918371654</v>
+      </c>
+      <c r="S7">
+        <v>0.8189064607522212</v>
+      </c>
+      <c r="T7">
+        <v>0.8189064607522212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6380313333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.914094</v>
+      </c>
+      <c r="I8">
+        <v>0.8868485064703402</v>
+      </c>
+      <c r="J8">
+        <v>0.8868485064703401</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.034619</v>
+      </c>
+      <c r="N8">
+        <v>0.103857</v>
+      </c>
+      <c r="O8">
+        <v>0.005523347213187152</v>
+      </c>
+      <c r="P8">
+        <v>0.005523347213187152</v>
+      </c>
+      <c r="Q8">
+        <v>0.02208800672866667</v>
+      </c>
+      <c r="R8">
+        <v>0.198792060558</v>
+      </c>
+      <c r="S8">
+        <v>0.004898372226732141</v>
+      </c>
+      <c r="T8">
+        <v>0.004898372226732141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6380313333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.914094</v>
+      </c>
+      <c r="I9">
+        <v>0.8868485064703402</v>
+      </c>
+      <c r="J9">
+        <v>0.8868485064703401</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05333966666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.160019</v>
+      </c>
+      <c r="O9">
+        <v>0.008510167804837369</v>
+      </c>
+      <c r="P9">
+        <v>0.008510167804837371</v>
+      </c>
+      <c r="Q9">
+        <v>0.03403237864288889</v>
+      </c>
+      <c r="R9">
+        <v>0.306291407786</v>
+      </c>
+      <c r="S9">
+        <v>0.007547229607531994</v>
+      </c>
+      <c r="T9">
+        <v>0.007547229607531995</v>
       </c>
     </row>
   </sheetData>
